--- a/biology/Botanique/Bourse_à_pasteur/Bourse_à_pasteur.xlsx
+++ b/biology/Botanique/Bourse_à_pasteur/Bourse_à_pasteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bourse_%C3%A0_pasteur</t>
+          <t>Bourse_à_pasteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle « Bourse à pasteur » ou « Bourse-à-pasteur » plusieurs espèces de plantes herbacées du genre Capsella, famille des Brassicaceae, notamment Capsella rubella et Capsella bursa-pastoris.
 Elles sont nommées ainsi car leurs fruits ressemblent à la bourse (le porte-monnaie ou le petit sac de nourriture) d'un pasteur, d'un berger. Le fruit est plat comme la bourse d'un berger est généralement vide. Elles sont appelées bourse-à-berger, bourse de capucin ou bourse de Juda. Le capucin est ici le moine, pauvre, dont la bourse est vide aussi.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bourse_%C3%A0_pasteur</t>
+          <t>Bourse_à_pasteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Dans le genre Capsella</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Capsella bursa-pastoris, la capselle bourse-à-pasteur est l'espèce la plus connue. Elle est en effet plutôt fréquente en Europe. Ses pétales sont blancs longs de 2 à 3 mm et environ 2 fois plus longs que les sépales. La réputation de l'espèce ne doit pas faire oublier que d'autres espèces lui ressemblent et sont appelées « bourse-à-pasteur ».
 Capsella rubella, la bourse-à-pasteur rougeâtre est une espèce moins répandue mais on la retrouve sur l'ensemble de la France et sur le pourtour méditerranéen. Ses pétales sont un peu rougeâtres longs de 1,5 à 2 mm, de longueurs équivalentes aux sépales.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bourse_%C3%A0_pasteur</t>
+          <t>Bourse_à_pasteur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Lepidium campestre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepidium campestre est une espèce de plantes également de la famille des Brassicaceae. Elle ne devrait pas être appelée Bourse-à-pasteur, mais la confusion avec les deux espèces sus-citées est possible. Le nom de« bourse-de-Judas » est par ailleurs attesté pour cette espèce.
 			Vue d'ensemble de Capsella bursa-pastoris
